--- a/src/main/java/com/mycompany/nba_estadisticas/Estadisticas_Baloncesto.xlsx
+++ b/src/main/java/com/mycompany/nba_estadisticas/Estadisticas_Baloncesto.xlsx
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -162,6 +162,91 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/java/com/mycompany/nba_estadisticas/Estadisticas_Baloncesto.xlsx
+++ b/src/main/java/com/mycompany/nba_estadisticas/Estadisticas_Baloncesto.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>Nombre</t>
+  </si>
   <si>
     <t>Anotados 2</t>
   </si>
@@ -33,6 +36,18 @@
   </si>
   <si>
     <t>eFG (%)</t>
+  </si>
+  <si>
+    <t>TS (%)</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
+    <t>Promedios</t>
+  </si>
+  <si>
+    <t>kobe</t>
   </si>
 </sst>
 </file>
@@ -77,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,28 +120,112 @@
       <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
+      <c r="A2" t="s" s="0">
+        <v>9</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>100.0</v>
+        <v>8.0</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>75.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>217.01388888888889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>217.01388888888889</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>52.94117647058824</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>72.91666666666666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>69.6078431372549</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>47.64705882352941</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>168.9814814814815</v>
       </c>
     </row>
   </sheetData>
